--- a/links.xlsx
+++ b/links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Desktop/Dynasty Draft Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zbell/Documents/GitHub/dynasty_draft_model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02A54C1-C041-4E4B-AFB9-F82BA7EBDC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30B0494-E148-9548-A13F-C8CC3613F2EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{599EAF70-B5F2-BE43-84B8-8E450C823E72}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Inspiration</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>http://lukevosters.com/Players/MariMa01.html</t>
+  </si>
+  <si>
+    <t>https://honors.libraries.psu.edu/files/final_submissions/6587</t>
   </si>
 </sst>
 </file>
@@ -427,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9142572-88E0-8F46-BF2D-FF1D7C657281}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,12 +467,18 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{B0CCF769-757A-4744-9DD9-5C3515696056}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{CBC5452D-7F6A-B244-9F57-EBAE3DBC8611}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{D8F01F14-BDBF-8547-BED1-B030F3442567}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{B380B281-C4BC-7C48-9580-887AB3630926}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{28EB97A0-5E6E-BF42-B5D1-C3B258F51D5B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
